--- a/ReamesDataTwo.xlsx
+++ b/ReamesDataTwo.xlsx
@@ -6,17 +6,20 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ReamesDataTwo" r:id="rId3" sheetId="1"/>
+    <sheet name="ReamesDateTwoUpdated" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Popularity</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -29,12 +32,15 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>Date Range</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>DateNum</t>
+  </si>
+  <si>
     <t>Region</t>
   </si>
   <si>
@@ -44,12 +50,18 @@
     <t>Ἀφαιστίων</t>
   </si>
   <si>
+    <t>popular</t>
+  </si>
+  <si>
     <t>Rhodes</t>
   </si>
   <si>
     <t>36.0913, 28.0882</t>
   </si>
   <si>
+    <t>325-250, 250-150</t>
+  </si>
+  <si>
     <t>200s</t>
   </si>
   <si>
@@ -62,6 +74,9 @@
     <t>Lindos, Rhodes</t>
   </si>
   <si>
+    <t>325-250</t>
+  </si>
+  <si>
     <t>https://epigraphy.packhum.org/text/139309?hs=1112-1124</t>
   </si>
   <si>
@@ -77,6 +92,9 @@
     <t>Ἀφαιστίς</t>
   </si>
   <si>
+    <t>rare</t>
+  </si>
+  <si>
     <t>Eresos, Lesbos</t>
   </si>
   <si>
@@ -107,7 +125,7 @@
     <t>https://epigraphy.packhum.org/text/288214?hs=1076-1088</t>
   </si>
   <si>
-    <t>Herakleia, Pontos</t>
+    <t>Herakleia</t>
   </si>
   <si>
     <t>41.287, 31.426</t>
@@ -125,7 +143,7 @@
     <t>Ἀφαίστιος</t>
   </si>
   <si>
-    <t>Chersonesos, Taurica</t>
+    <t>Chersonesos</t>
   </si>
   <si>
     <t>44.6103, 33.4922</t>
@@ -140,19 +158,19 @@
     <t>Ἁφαιστόδωρος</t>
   </si>
   <si>
+    <t>uncommon</t>
+  </si>
+  <si>
     <t>270-50</t>
   </si>
   <si>
     <t>https://epigraphy.packhum.org/text/339266?hs=2266-2282%2C2326-2341%2C2346-2362%2C2397-2413%2C2440-2455%2C2460-2476</t>
   </si>
   <si>
-    <t>Chersonesos</t>
-  </si>
-  <si>
     <t>https://epigraphy.packhum.org/text/184598?hs=1724-1743%2C1790-1805%2C3423-3439%2C3454-3470%2C3502-3518%2C3535-3551</t>
   </si>
   <si>
-    <t>Kallatis, Scythia Minor</t>
+    <t>Kallatis</t>
   </si>
   <si>
     <t>48.8148, 28.5865</t>
@@ -164,12 +182,15 @@
     <t>https://epigraphy.packhum.org/text/173603?hs=2850-2862</t>
   </si>
   <si>
-    <t>Naupaktos, Lokris</t>
+    <t>Naupaktos</t>
   </si>
   <si>
     <t>38.3997, 21.8313</t>
   </si>
   <si>
+    <t>250-150</t>
+  </si>
+  <si>
     <t>200-180</t>
   </si>
   <si>
@@ -182,6 +203,9 @@
     <t>Ἁφειστίων</t>
   </si>
   <si>
+    <t>less-popular</t>
+  </si>
+  <si>
     <t>Thespis</t>
   </si>
   <si>
@@ -251,6 +275,9 @@
     <t>38.4791, 22.497</t>
   </si>
   <si>
+    <t>500s</t>
+  </si>
+  <si>
     <t>530-20</t>
   </si>
   <si>
@@ -288,6 +315,9 @@
   </si>
   <si>
     <t>38.6718, 21.3195</t>
+  </si>
+  <si>
+    <t>500s, 400s</t>
   </si>
   <si>
     <t>600-400</t>
@@ -429,761 +459,991 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
         <v>36.0913</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>28.0882</v>
       </c>
-      <c r="F2"/>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
         <v>36.0913</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>28.0882</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="n">
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
         <v>325.0</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
+      <c r="I3" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36.544</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.355</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.544</v>
-      </c>
-      <c r="E4" t="n">
-        <v>26.355</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+      <c r="K4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="n">
         <v>39.1341</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>25.9348</v>
       </c>
-      <c r="F5"/>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="I5" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
         <v>39.3367</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>26.6548</v>
       </c>
-      <c r="F6"/>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
         <v>41.287</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>31.426</v>
       </c>
-      <c r="F7"/>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="I7" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="n">
         <v>44.6103</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>33.4922</v>
       </c>
-      <c r="F8"/>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="I8" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="n">
         <v>44.6103</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>33.4922</v>
       </c>
-      <c r="F9"/>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>44.6103</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>33.4922</v>
       </c>
-      <c r="F10"/>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="J10" t="s">
         <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="n">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="n">
         <v>48.8148</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>28.5865</v>
       </c>
-      <c r="F11"/>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="n">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="n">
         <v>38.3997</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>21.8313</v>
       </c>
-      <c r="F12"/>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="I12" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="n">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="n">
         <v>38.2935</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>23.1549</v>
       </c>
-      <c r="F13"/>
       <c r="G13" t="s">
         <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="I13" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="n">
         <v>38.2935</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>23.1549</v>
       </c>
-      <c r="F14"/>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="I14" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="n">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="n">
         <v>38.2564</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>22.972</v>
       </c>
-      <c r="F15"/>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="n">
+        <v>38.4956</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22.9641</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="J16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="n">
-        <v>38.4956</v>
-      </c>
-      <c r="E16" t="n">
-        <v>22.9641</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
+      <c r="K16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="n">
+        <v>38.4987</v>
+      </c>
+      <c r="F17" t="n">
+        <v>23.448</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="J17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="n">
-        <v>38.4987</v>
-      </c>
-      <c r="E17" t="n">
-        <v>23.448</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>75</v>
+      <c r="K17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="n">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="n">
         <v>38.4791</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>22.497</v>
       </c>
-      <c r="F18"/>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="I18" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="n">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="n">
         <v>38.2935</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>23.1549</v>
       </c>
-      <c r="F19"/>
       <c r="G19" t="s">
         <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="I19" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="n">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="n">
         <v>38.2935</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>23.1549</v>
       </c>
-      <c r="F20"/>
       <c r="G20" t="s">
         <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="I20" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="n">
+        <v>38.2935</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23.1549</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="J21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="n">
-        <v>38.2935</v>
-      </c>
-      <c r="E21" t="n">
-        <v>23.1549</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" t="s">
-        <v>82</v>
+      <c r="K21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="n">
+        <v>38.2935</v>
+      </c>
+      <c r="F22" t="n">
+        <v>23.1549</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="J22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="n">
-        <v>38.2935</v>
-      </c>
-      <c r="E22" t="n">
-        <v>23.1549</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" t="s">
-        <v>84</v>
+      <c r="K22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="n">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="n">
         <v>38.3191</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>23.3178</v>
       </c>
-      <c r="F23"/>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="I23" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" t="n">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="n">
         <v>38.6718</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>21.3195</v>
       </c>
-      <c r="F24"/>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" t="s">
-        <v>94</v>
+        <v>102</v>
+      </c>
+      <c r="I24" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" t="n">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="n">
         <v>38.1446</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>21.5514</v>
       </c>
-      <c r="F25"/>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="I25" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" t="n">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="n">
         <v>38.1446</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>21.5514</v>
       </c>
-      <c r="F26"/>
-      <c r="G26" t="n">
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="n">
         <v>219.0</v>
       </c>
-      <c r="H26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" t="s">
-        <v>99</v>
+      <c r="I26" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" t="n">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="n">
         <v>40.476</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>17.228</v>
       </c>
-      <c r="F27"/>
-      <c r="G27" t="n">
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="n">
         <v>267.0</v>
       </c>
-      <c r="H27" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" t="s">
-        <v>103</v>
+      <c r="I27" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" t="n">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="n">
         <v>37.5828</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>12.8251</v>
       </c>
-      <c r="F28"/>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="I28" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="n">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="n">
         <v>31.5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>25.5</v>
       </c>
-      <c r="F29"/>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" t="s">
-        <v>111</v>
+        <v>16</v>
+      </c>
+      <c r="I29" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
